--- a/data/trans_camb/P44D-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44D-Edad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-61.08404935161489</v>
+        <v>-61.14251337312631</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-66.29366852199159</v>
+        <v>-66.98078129837496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.10466631106214</v>
+        <v>-11.02796475457587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-26.04506410217655</v>
+        <v>-24.05314284428294</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-26.02485958382747</v>
+        <v>-25.23433881758344</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-35.97151542790668</v>
+        <v>-36.64205810109652</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.670978041121549</v>
+        <v>3.200899881868543</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.844603044820634</v>
+        <v>-9.699230356374217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55.18912232402653</v>
+        <v>51.42528993454547</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.243470117770618</v>
+        <v>9.98699026907307</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.45977510351656</v>
+        <v>13.59504266623564</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.364503056123632</v>
+        <v>-1.961021379643592</v>
       </c>
     </row>
     <row r="7">
@@ -713,20 +713,20 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.916503866728127</v>
+        <v>-0.9210157760158374</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9454111762657644</v>
+        <v>-0.948117391905472</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.8270733077523197</v>
+        <v>-0.8160894785634911</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7454976417191539</v>
+        <v>-0.7480564307569012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8591559722070714</v>
+        <v>-0.8622922407291294</v>
       </c>
     </row>
     <row r="9">
@@ -737,18 +737,18 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4743994433049848</v>
+        <v>0.3463191504294661</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4064037382930544</v>
+        <v>-0.4179727181609766</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>1.364477925594893</v>
+        <v>1.098216855934977</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1396603366622364</v>
+        <v>-0.0677464753951504</v>
       </c>
     </row>
     <row r="10">
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1764127613894247</v>
+        <v>-1.07058502295935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.91466809720493</v>
+        <v>-13.76084510246812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-47.91450437563604</v>
+        <v>-46.87350561864585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-46.2614396359626</v>
+        <v>-47.86859584567525</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.32263318755661</v>
+        <v>-15.65542546252994</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-21.32807457665636</v>
+        <v>-21.8111813047785</v>
       </c>
     </row>
     <row r="12">
@@ -815,22 +815,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>35.42300333690368</v>
+        <v>34.95311023247668</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.71616702652746</v>
+        <v>14.33990767852161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.365834850976635</v>
+        <v>-6.300643823275931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-7.471300491833562</v>
+        <v>-8.366190642671175</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.6369486798831</v>
+        <v>13.68698989199559</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.165685014506153</v>
+        <v>1.998685287307012</v>
       </c>
     </row>
     <row r="13">
@@ -867,22 +867,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4709758415383425</v>
+        <v>-0.3053576780073995</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6305847630785697</v>
+        <v>-0.607208513642736</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8794365434186262</v>
+        <v>-0.8870498503155737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.527519625739984</v>
+        <v>-0.5456784425473967</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6887567843461173</v>
+        <v>-0.6865870582110112</v>
       </c>
     </row>
     <row r="15">
@@ -895,16 +895,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>0.03925652902727892</v>
+        <v>-0.1025355531152983</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.4169995407331347</v>
+        <v>-0.4763052563244167</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.32095657105596</v>
+        <v>1.19412960709541</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.128689606160168</v>
+        <v>0.2167253898066996</v>
       </c>
     </row>
     <row r="16">
@@ -922,7 +922,7 @@
         <v>-4.561347615600637</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.306642836642515</v>
+        <v>0.3066428366425178</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>6.225753338208562</v>
@@ -945,22 +945,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.11582216798559</v>
+        <v>-24.04907487911109</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-19.6698707067653</v>
+        <v>-22.3169884837285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.32382665300783</v>
+        <v>-11.28550744996915</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-18.99180433301645</v>
+        <v>-20.45436410897608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.99851161914847</v>
+        <v>-12.5204641085493</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.33868694745249</v>
+        <v>-12.55599255902633</v>
       </c>
     </row>
     <row r="18">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.066457539720747</v>
+        <v>6.457590876708717</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.654873759335626</v>
+        <v>9.890874750427404</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.43582434965862</v>
+        <v>25.60602749577877</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.066405926356504</v>
+        <v>8.067439574239797</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.287809612426</v>
+        <v>9.116461377394835</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.442465740382102</v>
+        <v>6.740479623870729</v>
       </c>
     </row>
     <row r="19">
@@ -1000,7 +1000,7 @@
         <v>-0.4950401480626984</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.03327975152226749</v>
+        <v>0.03327975152226779</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.7076442533220425</v>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.7532011075108446</v>
+        <v>-0.7464592834637573</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.7585908826817723</v>
+        <v>-0.7532258170855484</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8029945675006345</v>
+        <v>-0.8218216152171105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6414866074422051</v>
+        <v>-0.6207023209341548</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>3.338553263378759</v>
+        <v>2.793588072141027</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.28651267904901</v>
+        <v>2.636959538740427</v>
       </c>
     </row>
     <row r="22">
@@ -1093,22 +1093,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.93887766650836</v>
+        <v>-16.17369442091416</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-19.78111374715467</v>
+        <v>-19.40205919396064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-30.86233669893831</v>
+        <v>-32.00719223583769</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-34.92207477826636</v>
+        <v>-35.37797461691498</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-16.93150347950586</v>
+        <v>-16.51475257042527</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-18.73340261460251</v>
+        <v>-19.84610247088927</v>
       </c>
     </row>
     <row r="24">
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.06359488829548</v>
+        <v>9.360079110998356</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.828062929038961</v>
+        <v>5.190813114228261</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.25932231734594</v>
+        <v>9.165978666735212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.6944296382102934</v>
+        <v>0.2835945978464111</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.813199047021087</v>
+        <v>5.655717197507816</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5011806202047074</v>
+        <v>0.738191421803104</v>
       </c>
     </row>
     <row r="25">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>-0.8768328427009399</v>
+        <v>-0.888322711483312</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.9437863511452382</v>
+        <v>-0.9364752314553826</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8557959540960383</v>
+        <v>-0.8637806374737749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8479206203739228</v>
+        <v>-0.8474118090501855</v>
       </c>
     </row>
     <row r="27">
@@ -1195,14 +1195,12 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
-      <c r="F27" s="6" t="n">
-        <v>-0.06759766063601357</v>
-      </c>
+      <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>1.944576508123396</v>
+        <v>2.266514576928159</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2127752820524892</v>
+        <v>0.2531341502768865</v>
       </c>
     </row>
     <row r="28">
@@ -1232,7 +1230,7 @@
         <v>-2.159404726491745</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.823981400748896</v>
+        <v>-6.823981400748895</v>
       </c>
     </row>
     <row r="29">
@@ -1243,22 +1241,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.480834524053082</v>
+        <v>-8.846999868800124</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.29205110028207</v>
+        <v>-13.24311782944857</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.79021914491445</v>
+        <v>-16.74956350151189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-20.41360677606666</v>
+        <v>-20.47793695795713</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.604614280655229</v>
+        <v>-9.32406122045888</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.24510641577991</v>
+        <v>-13.7421387300118</v>
       </c>
     </row>
     <row r="30">
@@ -1269,22 +1267,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.28604832828523</v>
+        <v>9.817275721945924</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.735549416413264</v>
+        <v>3.082637403767858</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.220124803587739</v>
+        <v>3.156113725437569</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.324565773338196</v>
+        <v>-3.229331056639187</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.89882512131462</v>
+        <v>4.599804971033657</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.492348861002048</v>
+        <v>-1.798819634398768</v>
       </c>
     </row>
     <row r="31">
@@ -1304,13 +1302,13 @@
         <v>-0.3637755278122322</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.5945467613466694</v>
+        <v>-0.5945467613466693</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1400565293744927</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4425956560064206</v>
+        <v>-0.4425956560064205</v>
       </c>
     </row>
     <row r="32">
@@ -1321,22 +1319,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4724853253957583</v>
+        <v>-0.4643835200195147</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5903904019328359</v>
+        <v>-0.5892053048687362</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7036024268353063</v>
+        <v>-0.7270327371793792</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7465042516607762</v>
+        <v>-0.7524556347340176</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4785733356606742</v>
+        <v>-0.4726815920272101</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6174524870523128</v>
+        <v>-0.6374018174784667</v>
       </c>
     </row>
     <row r="33">
@@ -1347,22 +1345,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.455205101312373</v>
+        <v>1.257726859324704</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5485701240098372</v>
+        <v>0.4633709505555758</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3828325249809503</v>
+        <v>0.3002744307822625</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2912126336966126</v>
+        <v>-0.2676697520097443</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4454071892939171</v>
+        <v>0.4043727734073966</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1388249663792979</v>
+        <v>-0.1556817012410008</v>
       </c>
     </row>
     <row r="34">
